--- a/Work Reports/Ibrahim Hegazi's Work Report.xlsx
+++ b/Work Reports/Ibrahim Hegazi's Work Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim_Hegazi\Desktop\CyberSentinel-AI-Powered-Home-and-Office-Network-Security-Scanner\Work Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim_Hegazi\Desktop\MalWatch\Work Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6146018D-51B7-4CBE-8860-C645F3ABAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8A3FC4-C701-4B0E-8A3E-E64B5345015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Work Reports/Ibrahim Hegazi's Work Report.xlsx
+++ b/Work Reports/Ibrahim Hegazi's Work Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim_Hegazi\Desktop\MalWatch\Work Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8A3FC4-C701-4B0E-8A3E-E64B5345015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF04D5B-AB46-452C-B415-E9FF249D7FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Answer the upcoming question: Threat Intelligence
  Platform (TIP),	Network Scanner / NDR,	SIEM what
 else?????</t>
-  </si>
-  <si>
-    <t>LLMs research</t>
   </si>
   <si>
     <t>Questions asked for this initial search:
@@ -107,6 +104,22 @@
   </si>
   <si>
     <t>14/7/2025</t>
+  </si>
+  <si>
+    <t>DONE: The final result is stored
+at Data Engineering Research/
+LLM Dataset 1 and 2 and final</t>
+  </si>
+  <si>
+    <t>LLMs datasets research</t>
+  </si>
+  <si>
+    <t>Phishing datasets research</t>
+  </si>
+  <si>
+    <t>DONE: The final result is stored
+at Data Engineering Research/
+Domain Monitoring phising analysis Idea and Datasets</t>
   </si>
 </sst>
 </file>
@@ -148,13 +161,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -447,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,81 +492,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>45998</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Reports/Ibrahim Hegazi's Work Report.xlsx
+++ b/Work Reports/Ibrahim Hegazi's Work Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim_Hegazi\Desktop\MalWatch\Work Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF04D5B-AB46-452C-B415-E9FF249D7FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751FB24-0A50-4EBD-AB14-0FDBA8CF7C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,24 @@
     <t>DONE: The final result is stored
 at Data Engineering Research/
 Domain Monitoring phising analysis Idea and Datasets</t>
+  </si>
+  <si>
+    <t>15/8/2025</t>
+  </si>
+  <si>
+    <t>Try to implement a data pipeline to extract the CVEs
+and try to update the updated CVEs from the old 
+DB using cumulative table design</t>
+  </si>
+  <si>
+    <t>FAILED: My humble knowledge 
+about the security data failed 
+me, and the api usage isnt clear
+for me as reddit's api. This task needs to be planned for and divided into sub tasks.</t>
+  </si>
+  <si>
+    <t>Make a Data Dictionary for each resource that you
+gonna include in your NLP Dataset</t>
   </si>
 </sst>
 </file>
@@ -135,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -174,6 +198,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,6 +615,31 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
